--- a/data/eBooks-main/current/cloud-native/Architecting-Cloud-Native-NET-Apps-for-Azure.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
+++ b/data/eBooks-main/current/cloud-native/Architecting-Cloud-Native-NET-Apps-for-Azure.pdf.hwaifs/tables/py/gmft/df.tables-0.xlsx
@@ -504,12 +504,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>is a Inc. permission.</t>
+          <t>a Inc.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>The Docker whale logo registered trademark of Docker, Used by</t>
+          <t>The Docker whale logo is registered trademark of Docker, Used by permission.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
